--- a/tests/artifact/script/Mobile-ProductRegister.xlsx
+++ b/tests/artifact/script/Mobile-ProductRegister.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="859">
   <si>
     <t>target</t>
   </si>
@@ -2345,6 +2345,9 @@
     <t>${click.Reports}</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>click on Product Registers in Reports</t>
   </si>
   <si>
@@ -2360,13 +2363,40 @@
     <t>${heading.productRegister}</t>
   </si>
   <si>
+    <t>${ProductSelect.Field}</t>
+  </si>
+  <si>
     <t>Type the product in select Field</t>
   </si>
   <si>
-    <t>${ProductSelect.Field}</t>
-  </si>
-  <si>
-    <t>Fermented</t>
+    <t>${Product.values}</t>
+  </si>
+  <si>
+    <t>Enter From Date in form date field</t>
+  </si>
+  <si>
+    <t>${FromDate.Value}</t>
+  </si>
+  <si>
+    <t>${From.Date}</t>
+  </si>
+  <si>
+    <t>Enter To date in To date field</t>
+  </si>
+  <si>
+    <t>${ToDatefield.Value}</t>
+  </si>
+  <si>
+    <t>${To.Date}</t>
+  </si>
+  <si>
+    <t>select the godown</t>
+  </si>
+  <si>
+    <t>${select.godown}</t>
+  </si>
+  <si>
+    <t>${Select.godown.values}</t>
   </si>
   <si>
     <t>Windows</t>
@@ -2375,33 +2405,6 @@
     <t>{ENTER}</t>
   </si>
   <si>
-    <t>Enter From Date in form date field</t>
-  </si>
-  <si>
-    <t>${FromDate.Value}</t>
-  </si>
-  <si>
-    <t>${From.Date}</t>
-  </si>
-  <si>
-    <t>Enter To date in To date field</t>
-  </si>
-  <si>
-    <t>${ToDatefield.Value}</t>
-  </si>
-  <si>
-    <t>${To.Date}</t>
-  </si>
-  <si>
-    <t>select the godown</t>
-  </si>
-  <si>
-    <t>${select.godown}</t>
-  </si>
-  <si>
-    <t>${Select.godown.values}</t>
-  </si>
-  <si>
     <t>click on view button</t>
   </si>
   <si>
@@ -2417,7 +2420,7 @@
     <t>${search.Field}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4/SL-23</t>
+    <t>${search.field.value}</t>
   </si>
   <si>
     <t>Saving the row count</t>
@@ -2465,93 +2468,147 @@
     <t>${pr.table.row.xpath}[${counter}]${pr.particular.values}</t>
   </si>
   <si>
+    <t xml:space="preserve">Click on search field </t>
+  </si>
+  <si>
+    <t>type the Empty values in search</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>remove the Searched values in search field</t>
+  </si>
+  <si>
+    <t>{BACKSPACE}</t>
+  </si>
+  <si>
+    <t>Filter Functionality</t>
+  </si>
+  <si>
+    <t>click on filter Icon</t>
+  </si>
+  <si>
+    <t>${pr.Filter.Icon}</t>
+  </si>
+  <si>
+    <t>Verify the Filter table</t>
+  </si>
+  <si>
+    <t>${filter.Table}</t>
+  </si>
+  <si>
+    <t>Verify the Filter Heading</t>
+  </si>
+  <si>
+    <t>${filter.Table.heading}</t>
+  </si>
+  <si>
+    <t>close the Filter Field</t>
+  </si>
+  <si>
+    <t>To check The Filter table present or not after closing the Filters</t>
+  </si>
+  <si>
+    <t>To check the Invoice using Filters</t>
+  </si>
+  <si>
+    <t>click on Invoice checkbox button</t>
+  </si>
+  <si>
+    <t>${filter.click.rejectionNote}</t>
+  </si>
+  <si>
+    <t>${filter.click.debit}</t>
+  </si>
+  <si>
+    <t>${filter.click.credit}</t>
+  </si>
+  <si>
+    <t>click on filter Icon to close the filters menu</t>
+  </si>
+  <si>
+    <t>invrowcount</t>
+  </si>
+  <si>
+    <t>invoicecounter</t>
+  </si>
+  <si>
+    <t>${invoicecounter}</t>
+  </si>
+  <si>
+    <t>${invrowcount}</t>
+  </si>
+  <si>
+    <t>invoicenames</t>
+  </si>
+  <si>
+    <t>${pr.table.row.xpath}[${invoicecounter}]${pr.particular.values}</t>
+  </si>
+  <si>
     <t>Verifying the particulars names after Searching</t>
   </si>
   <si>
-    <t>${particulars}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on search field </t>
-  </si>
-  <si>
-    <t>type the Empty values in search</t>
-  </si>
-  <si>
-    <t>(empty)</t>
-  </si>
-  <si>
-    <t>remove the Searched values in search field</t>
-  </si>
-  <si>
-    <t>{BACKSPACE}</t>
-  </si>
-  <si>
-    <t>Filter Functionality</t>
-  </si>
-  <si>
-    <t>click on filter Icon</t>
-  </si>
-  <si>
-    <t>${pr.Filter.Icon}</t>
-  </si>
-  <si>
-    <t>Verify the Filter table</t>
-  </si>
-  <si>
-    <t>${filter.Table}</t>
-  </si>
-  <si>
-    <t>Verify the Filter Heading</t>
-  </si>
-  <si>
-    <t>${filter.Table.heading}</t>
-  </si>
-  <si>
-    <t>close the Filter Field</t>
-  </si>
-  <si>
-    <t>To check The Filter table present or not after closing the Filters</t>
-  </si>
-  <si>
-    <t>To check the Invoice using Filters</t>
-  </si>
-  <si>
-    <t>click on Invoice checkbox button</t>
-  </si>
-  <si>
-    <t>${filter.click.rejectionNote}</t>
-  </si>
-  <si>
-    <t>${filter.click.debit}</t>
-  </si>
-  <si>
-    <t>${filter.click.credit}</t>
-  </si>
-  <si>
-    <t>click on filter Icon to close the filters menu</t>
-  </si>
-  <si>
-    <t>invrowcount</t>
-  </si>
-  <si>
-    <t>invoicecounter</t>
-  </si>
-  <si>
-    <t>${invoicecounter}</t>
-  </si>
-  <si>
-    <t>${invrowcount}</t>
-  </si>
-  <si>
-    <t>invoicenames</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}[${invoicecounter}]${pr.particular.values}</t>
-  </si>
-  <si>
     <t>${invoicenames}</t>
   </si>
   <si>
+    <t>click on filter and remove Invoice from Filter</t>
+  </si>
+  <si>
+    <t>click on Invoice</t>
+  </si>
+  <si>
+    <t>${Filter.Invoice}</t>
+  </si>
+  <si>
+    <t>${Filter.nonselect.result}</t>
+  </si>
+  <si>
+    <t>wait for a minute</t>
+  </si>
+  <si>
+    <t>To check the Rejection Note using Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Filter Icon </t>
+  </si>
+  <si>
+    <t>${filter.button}</t>
+  </si>
+  <si>
+    <t>Click on Rejection note check box in filter</t>
+  </si>
+  <si>
+    <t>${Filter.RejectionNote}</t>
+  </si>
+  <si>
+    <t>rejrowcount</t>
+  </si>
+  <si>
+    <t>rejectioncounter</t>
+  </si>
+  <si>
+    <t>${rejectioncounter}</t>
+  </si>
+  <si>
+    <t>${rejrowcount}</t>
+  </si>
+  <si>
+    <t>rejectionnames</t>
+  </si>
+  <si>
+    <t>${pr.table.row.xpath}[${rejectioncounter}]${pr.particular.values}</t>
+  </si>
+  <si>
+    <t>${rejectionnames}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on filter again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on rejection note to unselect from filter </t>
+  </si>
+  <si>
     <t>Re-direct to Invoice page</t>
   </si>
   <si>
@@ -2574,45 +2631,6 @@
   </si>
   <si>
     <t>go back to the previous page</t>
-  </si>
-  <si>
-    <t>To check the Rejection Note using Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click on Filter Icon </t>
-  </si>
-  <si>
-    <t>Click on Rejection note check box in filter</t>
-  </si>
-  <si>
-    <t>${Filter.RejectionNote}</t>
-  </si>
-  <si>
-    <t>verify the Pop up message if the data's are not available</t>
-  </si>
-  <si>
-    <t>${filter.Popup.Message}</t>
-  </si>
-  <si>
-    <t>click on Filter Icon to close the filters menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un-select the Rejection note </t>
-  </si>
-  <si>
-    <t>click on Debit note check box in filter</t>
-  </si>
-  <si>
-    <t>${Filter.DebitNote}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un-select the Debit note </t>
-  </si>
-  <si>
-    <t>click on Credit note in check box in filter</t>
-  </si>
-  <si>
-    <t>${Filter.CreditNote}</t>
   </si>
   <si>
     <t>Download Functionality</t>
@@ -2711,20 +2729,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
@@ -2757,6 +2761,20 @@
       <strike/>
       <sz val="11"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3414,7 +3432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3536,16 +3554,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3558,50 +3566,62 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3687,10 +3707,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6779,14 +6807,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="56"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="57"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6800,12 +6828,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="56"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6817,7 +6845,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6852,10 +6880,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="60" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6870,84 +6898,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="69" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="64"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="64"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="63"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="64"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="78"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="64"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6959,7 +6987,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="67"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6976,7 +7004,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6993,7 +7021,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -7010,7 +7038,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="67"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -7027,7 +7055,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7044,7 +7072,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="67"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7061,7 +7089,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="67"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7070,7 +7098,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7078,7 +7106,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7095,7 +7123,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7112,7 +7140,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="67"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7129,7 +7157,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="67"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7146,7 +7174,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7163,7 +7191,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="67"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7180,7 +7208,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="67"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7197,7 +7225,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="67"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7214,7 +7242,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="67"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7231,7 +7259,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="67"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7248,7 +7276,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7265,7 +7293,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="66"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7282,7 +7310,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="67"/>
+      <c r="J28" s="66"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7299,7 +7327,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="67"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7316,7 +7344,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="66"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7333,7 +7361,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="67"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7350,7 +7378,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="66"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7367,7 +7395,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="67"/>
+      <c r="J33" s="66"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7384,7 +7412,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="66"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7401,7 +7429,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="67"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7418,7 +7446,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="67"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7435,7 +7463,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="67"/>
+      <c r="J37" s="66"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7452,7 +7480,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="67"/>
+      <c r="J38" s="66"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7469,7 +7497,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="67"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7486,7 +7514,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="67"/>
+      <c r="J40" s="66"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7503,7 +7531,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="66"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7520,7 +7548,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="66"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7537,7 +7565,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="67"/>
+      <c r="J43" s="66"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7554,7 +7582,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="67"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7571,7 +7599,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="67"/>
+      <c r="J45" s="66"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7588,7 +7616,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="67"/>
+      <c r="J46" s="66"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7605,7 +7633,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="67"/>
+      <c r="J47" s="66"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7622,7 +7650,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="67"/>
+      <c r="J48" s="66"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7639,7 +7667,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="67"/>
+      <c r="J49" s="66"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7656,7 +7684,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="67"/>
+      <c r="J50" s="66"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7673,7 +7701,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="67"/>
+      <c r="J51" s="66"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7690,7 +7718,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="67"/>
+      <c r="J52" s="66"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7707,7 +7735,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="67"/>
+      <c r="J53" s="66"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7724,7 +7752,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="67"/>
+      <c r="J54" s="66"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7741,7 +7769,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="67"/>
+      <c r="J55" s="66"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7758,7 +7786,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="67"/>
+      <c r="J56" s="66"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7775,7 +7803,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="67"/>
+      <c r="J57" s="66"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7792,7 +7820,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="67"/>
+      <c r="J58" s="66"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7809,7 +7837,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="67"/>
+      <c r="J59" s="66"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7826,7 +7854,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="67"/>
+      <c r="J60" s="66"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7843,7 +7871,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="67"/>
+      <c r="J61" s="66"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7860,7 +7888,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="67"/>
+      <c r="J62" s="66"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7877,7 +7905,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="67"/>
+      <c r="J63" s="66"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7894,7 +7922,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="67"/>
+      <c r="J64" s="66"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7911,7 +7939,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="67"/>
+      <c r="J65" s="66"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7928,7 +7956,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="67"/>
+      <c r="J66" s="66"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7945,7 +7973,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="67"/>
+      <c r="J67" s="66"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7962,7 +7990,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="67"/>
+      <c r="J68" s="66"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7979,7 +8007,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="67"/>
+      <c r="J69" s="66"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7996,7 +8024,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="67"/>
+      <c r="J70" s="66"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -8013,7 +8041,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="67"/>
+      <c r="J71" s="66"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -8030,7 +8058,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="66"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8047,7 +8075,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="67"/>
+      <c r="J73" s="66"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8064,7 +8092,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="67"/>
+      <c r="J74" s="66"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8081,7 +8109,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="67"/>
+      <c r="J75" s="66"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8098,7 +8126,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="66"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8115,7 +8143,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="67"/>
+      <c r="J77" s="66"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8132,7 +8160,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="67"/>
+      <c r="J78" s="66"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8149,7 +8177,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="67"/>
+      <c r="J79" s="66"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8166,7 +8194,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="67"/>
+      <c r="J80" s="66"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8183,7 +8211,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="67"/>
+      <c r="J81" s="66"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8200,7 +8228,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="67"/>
+      <c r="J82" s="66"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8217,7 +8245,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="67"/>
+      <c r="J83" s="66"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8234,7 +8262,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="67"/>
+      <c r="J84" s="66"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8251,7 +8279,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="67"/>
+      <c r="J85" s="66"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8268,7 +8296,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="67"/>
+      <c r="J86" s="66"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8285,7 +8313,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="67"/>
+      <c r="J87" s="66"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8302,7 +8330,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="67"/>
+      <c r="J88" s="66"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8319,7 +8347,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="67"/>
+      <c r="J89" s="66"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8336,7 +8364,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="67"/>
+      <c r="J90" s="66"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8353,7 +8381,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="67"/>
+      <c r="J91" s="66"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8370,7 +8398,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="67"/>
+      <c r="J92" s="66"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8387,7 +8415,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="67"/>
+      <c r="J93" s="66"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8404,7 +8432,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="67"/>
+      <c r="J94" s="66"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8421,7 +8449,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="67"/>
+      <c r="J95" s="66"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8438,7 +8466,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="67"/>
+      <c r="J96" s="66"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8455,7 +8483,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="67"/>
+      <c r="J97" s="66"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8472,7 +8500,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="67"/>
+      <c r="J98" s="66"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8489,7 +8517,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="67"/>
+      <c r="J99" s="66"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8506,7 +8534,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="67"/>
+      <c r="J100" s="66"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8523,7 +8551,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="67"/>
+      <c r="J101" s="66"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8540,7 +8568,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="67"/>
+      <c r="J102" s="66"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8557,7 +8585,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="67"/>
+      <c r="J103" s="66"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8574,7 +8602,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="67"/>
+      <c r="J104" s="66"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8591,7 +8619,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="67"/>
+      <c r="J105" s="66"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8608,7 +8636,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="67"/>
+      <c r="J106" s="66"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8625,7 +8653,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="67"/>
+      <c r="J107" s="66"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8642,7 +8670,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="67"/>
+      <c r="J108" s="66"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8659,7 +8687,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="67"/>
+      <c r="J109" s="66"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8676,7 +8704,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="67"/>
+      <c r="J110" s="66"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8693,7 +8721,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="67"/>
+      <c r="J111" s="66"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8710,7 +8738,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="67"/>
+      <c r="J112" s="66"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8727,7 +8755,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="67"/>
+      <c r="J113" s="66"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8744,7 +8772,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="67"/>
+      <c r="J114" s="66"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8761,7 +8789,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="67"/>
+      <c r="J115" s="66"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8778,7 +8806,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="67"/>
+      <c r="J116" s="66"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8795,7 +8823,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="67"/>
+      <c r="J117" s="66"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8812,7 +8840,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="67"/>
+      <c r="J118" s="66"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8829,7 +8857,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="67"/>
+      <c r="J119" s="66"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8846,7 +8874,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="67"/>
+      <c r="J120" s="66"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8863,7 +8891,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="67"/>
+      <c r="J121" s="66"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8880,7 +8908,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="67"/>
+      <c r="J122" s="66"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8897,7 +8925,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="67"/>
+      <c r="J123" s="66"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8914,7 +8942,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="67"/>
+      <c r="J124" s="66"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8931,7 +8959,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="67"/>
+      <c r="J125" s="66"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8948,7 +8976,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="67"/>
+      <c r="J126" s="66"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8965,7 +8993,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="67"/>
+      <c r="J127" s="66"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8982,7 +9010,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="67"/>
+      <c r="J128" s="66"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8999,7 +9027,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="67"/>
+      <c r="J129" s="66"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -9016,7 +9044,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="67"/>
+      <c r="J130" s="66"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -9033,7 +9061,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="67"/>
+      <c r="J131" s="66"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9050,7 +9078,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="67"/>
+      <c r="J132" s="66"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9067,7 +9095,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="67"/>
+      <c r="J133" s="66"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9084,7 +9112,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="67"/>
+      <c r="J134" s="66"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9101,7 +9129,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="67"/>
+      <c r="J135" s="66"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9118,7 +9146,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="67"/>
+      <c r="J136" s="66"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9135,7 +9163,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="67"/>
+      <c r="J137" s="66"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9152,7 +9180,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="67"/>
+      <c r="J138" s="66"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9169,7 +9197,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="67"/>
+      <c r="J139" s="66"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9186,7 +9214,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="67"/>
+      <c r="J140" s="66"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9203,7 +9231,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="67"/>
+      <c r="J141" s="66"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9220,7 +9248,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="67"/>
+      <c r="J142" s="66"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9237,7 +9265,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="67"/>
+      <c r="J143" s="66"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9254,7 +9282,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="67"/>
+      <c r="J144" s="66"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9271,7 +9299,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="67"/>
+      <c r="J145" s="66"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9288,7 +9316,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="67"/>
+      <c r="J146" s="66"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9305,7 +9333,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="67"/>
+      <c r="J147" s="66"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9322,7 +9350,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="67"/>
+      <c r="J148" s="66"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9339,7 +9367,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="67"/>
+      <c r="J149" s="66"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9356,7 +9384,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="67"/>
+      <c r="J150" s="66"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9373,7 +9401,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="67"/>
+      <c r="J151" s="66"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9390,7 +9418,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="67"/>
+      <c r="J152" s="66"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9407,7 +9435,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="67"/>
+      <c r="J153" s="66"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9424,7 +9452,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="67"/>
+      <c r="J154" s="66"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9441,7 +9469,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="67"/>
+      <c r="J155" s="66"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9458,7 +9486,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="67"/>
+      <c r="J156" s="66"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9475,7 +9503,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="67"/>
+      <c r="J157" s="66"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9492,7 +9520,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="67"/>
+      <c r="J158" s="66"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9509,7 +9537,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="67"/>
+      <c r="J159" s="66"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9526,7 +9554,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="67"/>
+      <c r="J160" s="66"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9543,7 +9571,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="67"/>
+      <c r="J161" s="66"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9560,7 +9588,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="67"/>
+      <c r="J162" s="66"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9577,7 +9605,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="67"/>
+      <c r="J163" s="66"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9594,7 +9622,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="67"/>
+      <c r="J164" s="66"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9611,7 +9639,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="67"/>
+      <c r="J165" s="66"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9628,7 +9656,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="67"/>
+      <c r="J166" s="66"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9645,7 +9673,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="67"/>
+      <c r="J167" s="66"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9662,7 +9690,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="67"/>
+      <c r="J168" s="66"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9679,7 +9707,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="67"/>
+      <c r="J169" s="66"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9696,7 +9724,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="67"/>
+      <c r="J170" s="66"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9713,7 +9741,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="67"/>
+      <c r="J171" s="66"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9730,7 +9758,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="67"/>
+      <c r="J172" s="66"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9747,7 +9775,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="67"/>
+      <c r="J173" s="66"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9764,7 +9792,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="67"/>
+      <c r="J174" s="66"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9781,7 +9809,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="67"/>
+      <c r="J175" s="66"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9798,7 +9826,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="67"/>
+      <c r="J176" s="66"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9815,7 +9843,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="67"/>
+      <c r="J177" s="66"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9832,7 +9860,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="67"/>
+      <c r="J178" s="66"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9849,7 +9877,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="67"/>
+      <c r="J179" s="66"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9866,7 +9894,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="67"/>
+      <c r="J180" s="66"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9883,7 +9911,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="67"/>
+      <c r="J181" s="66"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9900,7 +9928,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="67"/>
+      <c r="J182" s="66"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9917,7 +9945,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="67"/>
+      <c r="J183" s="66"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9934,7 +9962,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="67"/>
+      <c r="J184" s="66"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9951,7 +9979,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="67"/>
+      <c r="J185" s="66"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9968,7 +9996,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="67"/>
+      <c r="J186" s="66"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9985,7 +10013,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="67"/>
+      <c r="J187" s="66"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -10002,7 +10030,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="67"/>
+      <c r="J188" s="66"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -10067,8 +10095,8 @@
   <sheetPr/>
   <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10112,14 +10140,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="56"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="57"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10133,12 +10161,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="56"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10150,7 +10178,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10185,10 +10213,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="60" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10224,12 +10252,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="64"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10251,12 +10279,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="64"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="63"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10267,16 +10295,18 @@
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>760</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10286,22 +10316,24 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>761</v>
-      </c>
-      <c r="F8" s="27"/>
+        <v>762</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>760</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="67"/>
+      <c r="J8" s="66"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10310,10 +10342,10 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
@@ -10322,13 +10354,13 @@
         <v>253</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="67"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10337,25 +10369,23 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
-        <v>765</v>
-      </c>
+      <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>692</v>
+        <v>576</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>766</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>767</v>
+      <c r="F10" s="35">
+        <v>3000</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10363,24 +10393,26 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>768</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>769</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10390,7 +10422,7 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -10399,15 +10431,15 @@
         <v>707</v>
       </c>
       <c r="E12" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>771</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>772</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="67"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10417,7 +10449,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10426,15 +10458,15 @@
         <v>707</v>
       </c>
       <c r="E13" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>774</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>775</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10444,24 +10476,24 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>776</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>707</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="F14" s="28" t="s">
         <v>777</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>778</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="67"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10471,22 +10503,22 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>769</v>
+      <c r="E15" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="67"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10496,22 +10528,22 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="C16" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>780</v>
-      </c>
-      <c r="F16" s="45"/>
+      <c r="E16" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="F16" s="41"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10519,28 +10551,28 @@
       <c r="O16" s="22"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="46" t="s">
-        <v>781</v>
-      </c>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="45" t="s">
         <v>707</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>783</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="E17" s="45" t="s">
         <v>784</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>785</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10548,26 +10580,26 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="47" t="s">
-        <v>785</v>
-      </c>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>786</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="45" t="s">
         <v>787</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>788</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="67"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10575,26 +10607,26 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="47" t="s">
-        <v>788</v>
-      </c>
-      <c r="C19" s="52" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>789</v>
-      </c>
-      <c r="F19" s="54" t="s">
+      <c r="E19" s="49" t="s">
         <v>790</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>791</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="67"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10602,24 +10634,24 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>791</v>
-      </c>
-      <c r="F20" s="54" t="s">
+      <c r="E20" s="49" t="s">
         <v>792</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>793</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10627,24 +10659,24 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="52" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>793</v>
-      </c>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="49" t="s">
         <v>794</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>795</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="67"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10652,26 +10684,26 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="47" t="s">
-        <v>795</v>
-      </c>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="43" t="s">
+        <v>796</v>
+      </c>
+      <c r="C22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>789</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>796</v>
+      <c r="E22" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>797</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="67"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10679,26 +10711,26 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="47" t="s">
-        <v>797</v>
-      </c>
-      <c r="C23" s="48" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>798</v>
-      </c>
-      <c r="F23" s="50" t="s">
+      <c r="E23" s="45" t="s">
         <v>799</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>800</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="67"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10706,26 +10738,24 @@
       <c r="O23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="47" t="s">
-        <v>800</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="53" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>799</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>801</v>
-      </c>
+      <c r="D24" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>784</v>
+      </c>
+      <c r="F24" s="28"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="67"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10741,16 +10771,18 @@
         <v>30</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>783</v>
-      </c>
-      <c r="F25" s="28"/>
+        <v>707</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>784</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>803</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="67"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10760,24 +10792,24 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>783</v>
+        <v>656</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>778</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10785,26 +10817,26 @@
       <c r="O26" s="22"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="19"/>
+      <c r="A27" s="19" t="s">
+        <v>806</v>
+      </c>
       <c r="B27" s="30" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>656</v>
+        <v>363</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>806</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="66"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10812,26 +10844,24 @@
       <c r="O27" s="22"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="19" t="s">
-        <v>807</v>
-      </c>
+      <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="67"/>
+      <c r="J28" s="66"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10841,7 +10871,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10850,13 +10880,13 @@
         <v>253</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="67"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10866,29 +10896,29 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="66"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
       <c r="N30" s="23"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="31" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
         <v>814</v>
@@ -10897,43 +10927,45 @@
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F31" s="28"/>
+        <v>810</v>
+      </c>
+      <c r="F31" s="28">
+        <v>3000</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="67"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
       <c r="N31" s="23"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
-      <c r="A32" s="19"/>
+    <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="B32" s="30" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>811</v>
-      </c>
-      <c r="F32" s="28">
-        <v>3000</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="66"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10941,26 +10973,26 @@
       <c r="O32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="30" t="s">
         <v>816</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>808</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>817</v>
+      </c>
+      <c r="F33" s="28">
+        <v>2000</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="67"/>
+      <c r="J33" s="66"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10969,9 +11001,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="30" t="s">
-        <v>817</v>
-      </c>
+      <c r="B34" s="30"/>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
@@ -10987,7 +11017,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="66"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -11001,18 +11031,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="F35" s="28">
-        <v>2000</v>
-      </c>
+      <c r="F35" s="28"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="67"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -11021,7 +11049,9 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>820</v>
+      </c>
       <c r="C36" s="26" t="s">
         <v>30</v>
       </c>
@@ -11029,13 +11059,13 @@
         <v>363</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="67"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -11044,23 +11074,25 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="E37" s="45" t="s">
         <v>821</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="46" t="s">
+        <v>788</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="67"/>
+      <c r="J37" s="66"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11069,25 +11101,25 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="47" t="s">
-        <v>785</v>
+      <c r="B38" s="43" t="s">
+        <v>789</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>822</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="67"/>
+      <c r="J38" s="66"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11096,25 +11128,23 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="47" t="s">
-        <v>788</v>
-      </c>
-      <c r="C39" s="52" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="53" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>823</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>790</v>
+      <c r="D39" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>793</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="67"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11123,23 +11153,23 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="52" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="53" t="s">
-        <v>465</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>791</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>792</v>
+      <c r="D40" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>823</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>824</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="67"/>
+      <c r="J40" s="66"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11148,23 +11178,25 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>824</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>825</v>
+      <c r="B41" s="43" t="s">
+        <v>796</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>797</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="66"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11173,25 +11205,25 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="47" t="s">
-        <v>795</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>823</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>796</v>
+      <c r="B42" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>825</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>826</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="66"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11200,25 +11232,25 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="47" t="s">
-        <v>797</v>
+      <c r="B43" s="43" t="s">
+        <v>827</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="E43" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="E43" s="46" t="s">
         <v>826</v>
       </c>
-      <c r="F43" s="50" t="s">
-        <v>827</v>
+      <c r="F43" s="46" t="s">
+        <v>828</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="67"/>
+      <c r="J43" s="66"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11227,25 +11259,23 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="47" t="s">
-        <v>800</v>
-      </c>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="53" t="s">
-        <v>530</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>827</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>828</v>
-      </c>
+      <c r="D44" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="67"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11253,9 +11283,7 @@
       <c r="O44" s="22"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="19" t="s">
-        <v>829</v>
-      </c>
+      <c r="A45" s="19"/>
       <c r="B45" s="30" t="s">
         <v>830</v>
       </c>
@@ -11263,7 +11291,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>600</v>
+        <v>363</v>
       </c>
       <c r="E45" s="27" t="s">
         <v>831</v>
@@ -11272,7 +11300,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="67"/>
+      <c r="J45" s="66"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11281,9 +11309,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="30" t="s">
-        <v>832</v>
-      </c>
+      <c r="B46" s="30"/>
       <c r="C46" s="26" t="s">
         <v>30</v>
       </c>
@@ -11291,13 +11317,13 @@
         <v>253</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="67"/>
+      <c r="J46" s="66"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11307,22 +11333,22 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>253</v>
+        <v>715</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>835</v>
+        <v>760</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="67"/>
+      <c r="J47" s="66"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11330,134 +11356,182 @@
       <c r="O47" s="22"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A48" s="19"/>
+      <c r="A48" s="19" t="s">
+        <v>834</v>
+      </c>
       <c r="B48" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E48" s="27"/>
+        <v>363</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>836</v>
+      </c>
       <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="67"/>
+      <c r="J48" s="66"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
       <c r="N48" s="23"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="B49" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>838</v>
+      </c>
       <c r="F49" s="28"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="67"/>
+      <c r="J49" s="66"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
       <c r="N49" s="23"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
+      <c r="B50" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>839</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>788</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="67"/>
+      <c r="J50" s="66"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
       <c r="N50" s="23"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
+      <c r="B51" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>840</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>791</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="67"/>
+      <c r="J51" s="66"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
       <c r="N51" s="23"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>793</v>
+      </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="67"/>
+      <c r="J52" s="66"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
       <c r="N52" s="23"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>841</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>842</v>
+      </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="67"/>
+      <c r="J53" s="66"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A54" s="19" t="s">
-        <v>837</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>838</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F54" s="28"/>
+    <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="43" t="s">
+        <v>796</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>840</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>797</v>
+      </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="67"/>
+      <c r="J54" s="66"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11465,24 +11539,26 @@
       <c r="O54" s="22"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="C55" s="26" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="C55" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="F55" s="28"/>
+      <c r="D55" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>843</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>844</v>
+      </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="67"/>
+      <c r="J55" s="66"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11491,23 +11567,25 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="30" t="s">
-        <v>841</v>
-      </c>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="43" t="s">
+        <v>827</v>
+      </c>
+      <c r="C56" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="F56" s="28"/>
+      <c r="D56" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>844</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>845</v>
+      </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="67"/>
+      <c r="J56" s="66"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11517,7 +11595,7 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="30" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
@@ -11526,13 +11604,13 @@
         <v>363</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="67"/>
+      <c r="J57" s="66"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11541,23 +11619,23 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="32" t="s">
-        <v>838</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="B58" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>809</v>
+      <c r="E58" s="27" t="s">
+        <v>831</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="67"/>
+      <c r="J58" s="66"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11566,23 +11644,23 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="C59" s="33" t="s">
+      <c r="B59" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>840</v>
+      <c r="E59" s="27" t="s">
+        <v>838</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="67"/>
+      <c r="J59" s="66"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11591,23 +11669,23 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
-      <c r="B60" s="32" t="s">
-        <v>845</v>
-      </c>
-      <c r="C60" s="33" t="s">
+      <c r="B60" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>846</v>
+      <c r="D60" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>760</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="67"/>
+      <c r="J60" s="66"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11615,24 +11693,26 @@
       <c r="O60" s="22"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="19"/>
-      <c r="B61" s="32" t="s">
-        <v>841</v>
-      </c>
-      <c r="C61" s="33" t="s">
+      <c r="A61" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>842</v>
+      <c r="D61" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>850</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="67"/>
+      <c r="J61" s="66"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11641,23 +11721,23 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="32" t="s">
-        <v>843</v>
-      </c>
-      <c r="C62" s="33" t="s">
+      <c r="B62" s="52" t="s">
+        <v>851</v>
+      </c>
+      <c r="C62" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>809</v>
+      <c r="D62" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>852</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="67"/>
+      <c r="J62" s="66"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11666,23 +11746,23 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="32" t="s">
-        <v>838</v>
-      </c>
-      <c r="C63" s="33" t="s">
+      <c r="B63" s="52" t="s">
+        <v>853</v>
+      </c>
+      <c r="C63" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>809</v>
+      <c r="D63" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>854</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="67"/>
+      <c r="J63" s="66"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11691,48 +11771,38 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="32" t="s">
-        <v>847</v>
-      </c>
-      <c r="C64" s="33" t="s">
+      <c r="B64" s="52" t="s">
+        <v>855</v>
+      </c>
+      <c r="C64" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>846</v>
-      </c>
+      <c r="D64" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="E64" s="34"/>
       <c r="F64" s="28"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="67"/>
+      <c r="J64" s="66"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
       <c r="N64" s="23"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="65" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
-      <c r="B65" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>849</v>
-      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="28"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="67"/>
+      <c r="J65" s="66"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11741,23 +11811,15 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="32" t="s">
-        <v>841</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>842</v>
-      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="28"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="67"/>
+      <c r="J66" s="66"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11766,23 +11828,15 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
-      <c r="B67" s="32" t="s">
-        <v>843</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>809</v>
-      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="28"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="67"/>
+      <c r="J67" s="66"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11791,19 +11845,15 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="E68" s="34"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="28"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="67"/>
+      <c r="J68" s="66"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11812,10 +11862,10 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>30</v>
@@ -11824,13 +11874,13 @@
         <v>363</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="67"/>
+      <c r="J69" s="66"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11840,22 +11890,22 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="30"/>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="E70" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="F70" s="44" t="s">
-        <v>769</v>
+      <c r="E70" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>779</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="67"/>
+      <c r="J70" s="66"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11867,12 +11917,12 @@
       <c r="B71" s="30"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="69"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="68"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="67"/>
+      <c r="J71" s="66"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11884,12 +11934,12 @@
       <c r="B72" s="30"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="69"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="68"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="66"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11901,12 +11951,12 @@
       <c r="B73" s="30"/>
       <c r="C73" s="26"/>
       <c r="D73" s="27"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="69"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="68"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="67"/>
+      <c r="J73" s="66"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11918,12 +11968,12 @@
       <c r="B74" s="30"/>
       <c r="C74" s="26"/>
       <c r="D74" s="27"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="69"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="68"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="67"/>
+      <c r="J74" s="66"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11935,12 +11985,12 @@
       <c r="B75" s="30"/>
       <c r="C75" s="26"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="69"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="68"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="67"/>
+      <c r="J75" s="66"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11957,7 +12007,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="66"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11974,7 +12024,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="67"/>
+      <c r="J77" s="66"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11991,7 +12041,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="67"/>
+      <c r="J78" s="66"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -12008,7 +12058,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="67"/>
+      <c r="J79" s="66"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -12025,7 +12075,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="67"/>
+      <c r="J80" s="66"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -12042,7 +12092,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="67"/>
+      <c r="J81" s="66"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -12059,7 +12109,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="67"/>
+      <c r="J82" s="66"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -12076,7 +12126,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="67"/>
+      <c r="J83" s="66"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -12093,7 +12143,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="67"/>
+      <c r="J84" s="66"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -12110,7 +12160,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="67"/>
+      <c r="J85" s="66"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12127,7 +12177,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="67"/>
+      <c r="J86" s="66"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12144,7 +12194,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="67"/>
+      <c r="J87" s="66"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12161,7 +12211,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="67"/>
+      <c r="J88" s="66"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12178,7 +12228,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="67"/>
+      <c r="J89" s="66"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12195,7 +12245,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="67"/>
+      <c r="J90" s="66"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12212,7 +12262,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="67"/>
+      <c r="J91" s="66"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12229,7 +12279,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="67"/>
+      <c r="J92" s="66"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12246,7 +12296,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="67"/>
+      <c r="J93" s="66"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12263,7 +12313,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="67"/>
+      <c r="J94" s="66"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12280,7 +12330,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="67"/>
+      <c r="J95" s="66"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12297,7 +12347,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="67"/>
+      <c r="J96" s="66"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12314,7 +12364,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="67"/>
+      <c r="J97" s="66"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12331,7 +12381,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="67"/>
+      <c r="J98" s="66"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12348,7 +12398,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="67"/>
+      <c r="J99" s="66"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12365,7 +12415,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="67"/>
+      <c r="J100" s="66"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12382,7 +12432,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="67"/>
+      <c r="J101" s="66"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12399,7 +12449,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="67"/>
+      <c r="J102" s="66"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12416,7 +12466,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="67"/>
+      <c r="J103" s="66"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12433,7 +12483,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="67"/>
+      <c r="J104" s="66"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12450,7 +12500,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="67"/>
+      <c r="J105" s="66"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12467,7 +12517,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="67"/>
+      <c r="J106" s="66"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12484,7 +12534,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="67"/>
+      <c r="J107" s="66"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12501,7 +12551,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="67"/>
+      <c r="J108" s="66"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12518,7 +12568,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="67"/>
+      <c r="J109" s="66"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12535,7 +12585,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="67"/>
+      <c r="J110" s="66"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12552,7 +12602,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="67"/>
+      <c r="J111" s="66"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12569,7 +12619,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="67"/>
+      <c r="J112" s="66"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12586,7 +12636,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="67"/>
+      <c r="J113" s="66"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12603,7 +12653,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="67"/>
+      <c r="J114" s="66"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12620,7 +12670,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="67"/>
+      <c r="J115" s="66"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12637,7 +12687,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="67"/>
+      <c r="J116" s="66"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12654,7 +12704,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="67"/>
+      <c r="J117" s="66"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12671,7 +12721,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="67"/>
+      <c r="J118" s="66"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12688,7 +12738,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="67"/>
+      <c r="J119" s="66"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12705,7 +12755,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="67"/>
+      <c r="J120" s="66"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12722,7 +12772,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="67"/>
+      <c r="J121" s="66"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12739,7 +12789,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="67"/>
+      <c r="J122" s="66"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12756,7 +12806,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="67"/>
+      <c r="J123" s="66"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12773,7 +12823,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="67"/>
+      <c r="J124" s="66"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12790,7 +12840,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="67"/>
+      <c r="J125" s="66"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12807,7 +12857,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="67"/>
+      <c r="J126" s="66"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12824,7 +12874,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="67"/>
+      <c r="J127" s="66"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12841,7 +12891,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="67"/>
+      <c r="J128" s="66"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12858,7 +12908,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="67"/>
+      <c r="J129" s="66"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12875,7 +12925,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="67"/>
+      <c r="J130" s="66"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12892,7 +12942,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="67"/>
+      <c r="J131" s="66"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12909,7 +12959,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="67"/>
+      <c r="J132" s="66"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12926,7 +12976,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="67"/>
+      <c r="J133" s="66"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12943,7 +12993,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="67"/>
+      <c r="J134" s="66"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12960,7 +13010,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="67"/>
+      <c r="J135" s="66"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12977,7 +13027,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="67"/>
+      <c r="J136" s="66"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12994,7 +13044,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="67"/>
+      <c r="J137" s="66"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -13011,7 +13061,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="67"/>
+      <c r="J138" s="66"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -13028,7 +13078,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="67"/>
+      <c r="J139" s="66"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -13045,7 +13095,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="67"/>
+      <c r="J140" s="66"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -13062,7 +13112,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="67"/>
+      <c r="J141" s="66"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13079,7 +13129,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="67"/>
+      <c r="J142" s="66"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13096,7 +13146,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="67"/>
+      <c r="J143" s="66"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13113,7 +13163,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="67"/>
+      <c r="J144" s="66"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13130,7 +13180,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="67"/>
+      <c r="J145" s="66"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13147,7 +13197,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="67"/>
+      <c r="J146" s="66"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13164,7 +13214,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="67"/>
+      <c r="J147" s="66"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13181,7 +13231,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="67"/>
+      <c r="J148" s="66"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13198,7 +13248,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="67"/>
+      <c r="J149" s="66"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13215,7 +13265,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="67"/>
+      <c r="J150" s="66"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13232,7 +13282,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="67"/>
+      <c r="J151" s="66"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13249,7 +13299,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="67"/>
+      <c r="J152" s="66"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13266,7 +13316,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="67"/>
+      <c r="J153" s="66"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -13283,7 +13333,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="67"/>
+      <c r="J154" s="66"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -13300,7 +13350,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="67"/>
+      <c r="J155" s="66"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -13317,7 +13367,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="67"/>
+      <c r="J156" s="66"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -13334,7 +13384,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="67"/>
+      <c r="J157" s="66"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -13351,7 +13401,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="67"/>
+      <c r="J158" s="66"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -13368,7 +13418,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="67"/>
+      <c r="J159" s="66"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13385,7 +13435,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="67"/>
+      <c r="J160" s="66"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13402,7 +13452,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="67"/>
+      <c r="J161" s="66"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13419,7 +13469,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="67"/>
+      <c r="J162" s="66"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13436,7 +13486,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="67"/>
+      <c r="J163" s="66"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13453,7 +13503,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="67"/>
+      <c r="J164" s="66"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13470,7 +13520,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="67"/>
+      <c r="J165" s="66"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13487,7 +13537,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="67"/>
+      <c r="J166" s="66"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13504,7 +13554,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="67"/>
+      <c r="J167" s="66"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13521,7 +13571,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="67"/>
+      <c r="J168" s="66"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13538,7 +13588,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="67"/>
+      <c r="J169" s="66"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13555,7 +13605,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="67"/>
+      <c r="J170" s="66"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13572,7 +13622,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="67"/>
+      <c r="J171" s="66"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13589,7 +13639,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="67"/>
+      <c r="J172" s="66"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13606,7 +13656,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="67"/>
+      <c r="J173" s="66"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13623,7 +13673,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="67"/>
+      <c r="J174" s="66"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13640,7 +13690,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="67"/>
+      <c r="J175" s="66"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13657,7 +13707,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="67"/>
+      <c r="J176" s="66"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13674,7 +13724,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="67"/>
+      <c r="J177" s="66"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13691,7 +13741,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="67"/>
+      <c r="J178" s="66"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13708,7 +13758,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="67"/>
+      <c r="J179" s="66"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13725,7 +13775,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="67"/>
+      <c r="J180" s="66"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13742,7 +13792,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="67"/>
+      <c r="J181" s="66"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13759,7 +13809,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="67"/>
+      <c r="J182" s="66"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13776,7 +13826,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="67"/>
+      <c r="J183" s="66"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13793,7 +13843,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="67"/>
+      <c r="J184" s="66"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13810,7 +13860,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="67"/>
+      <c r="J185" s="66"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13827,7 +13877,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="67"/>
+      <c r="J186" s="66"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13844,7 +13894,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="67"/>
+      <c r="J187" s="66"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13861,7 +13911,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="67"/>
+      <c r="J188" s="66"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -13878,7 +13928,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="67"/>
+      <c r="J189" s="66"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -13895,7 +13945,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="67"/>
+      <c r="J190" s="66"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -13912,7 +13962,7 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="67"/>
+      <c r="J191" s="66"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
@@ -13929,7 +13979,7 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="67"/>
+      <c r="J192" s="66"/>
       <c r="K192" s="22"/>
       <c r="L192" s="23"/>
       <c r="M192" s="21"/>
@@ -13946,7 +13996,7 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="67"/>
+      <c r="J193" s="66"/>
       <c r="K193" s="22"/>
       <c r="L193" s="23"/>
       <c r="M193" s="21"/>
@@ -13963,7 +14013,7 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="67"/>
+      <c r="J194" s="66"/>
       <c r="K194" s="22"/>
       <c r="L194" s="23"/>
       <c r="M194" s="21"/>
@@ -13980,7 +14030,7 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="67"/>
+      <c r="J195" s="66"/>
       <c r="K195" s="22"/>
       <c r="L195" s="23"/>
       <c r="M195" s="21"/>
@@ -13997,7 +14047,7 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="67"/>
+      <c r="J196" s="66"/>
       <c r="K196" s="22"/>
       <c r="L196" s="23"/>
       <c r="M196" s="21"/>
@@ -14014,7 +14064,7 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="67"/>
+      <c r="J197" s="66"/>
       <c r="K197" s="22"/>
       <c r="L197" s="23"/>
       <c r="M197" s="21"/>
@@ -14031,7 +14081,7 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="67"/>
+      <c r="J198" s="66"/>
       <c r="K198" s="22"/>
       <c r="L198" s="23"/>
       <c r="M198" s="21"/>
@@ -14048,7 +14098,7 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="67"/>
+      <c r="J199" s="66"/>
       <c r="K199" s="22"/>
       <c r="L199" s="23"/>
       <c r="M199" s="21"/>
@@ -14065,7 +14115,7 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="67"/>
+      <c r="J200" s="66"/>
       <c r="K200" s="22"/>
       <c r="L200" s="23"/>
       <c r="M200" s="21"/>
@@ -14082,7 +14132,7 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="67"/>
+      <c r="J201" s="66"/>
       <c r="K201" s="22"/>
       <c r="L201" s="23"/>
       <c r="M201" s="21"/>
@@ -14099,7 +14149,7 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
-      <c r="J202" s="67"/>
+      <c r="J202" s="66"/>
       <c r="K202" s="22"/>
       <c r="L202" s="23"/>
       <c r="M202" s="21"/>
@@ -14116,7 +14166,7 @@
       <c r="G203" s="27"/>
       <c r="H203" s="27"/>
       <c r="I203" s="27"/>
-      <c r="J203" s="67"/>
+      <c r="J203" s="66"/>
       <c r="K203" s="22"/>
       <c r="L203" s="23"/>
       <c r="M203" s="21"/>
@@ -14133,7 +14183,7 @@
       <c r="G204" s="27"/>
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
-      <c r="J204" s="67"/>
+      <c r="J204" s="66"/>
       <c r="K204" s="22"/>
       <c r="L204" s="23"/>
       <c r="M204" s="21"/>
@@ -14150,7 +14200,7 @@
       <c r="G205" s="27"/>
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
-      <c r="J205" s="67"/>
+      <c r="J205" s="66"/>
       <c r="K205" s="22"/>
       <c r="L205" s="23"/>
       <c r="M205" s="21"/>
@@ -14167,7 +14217,7 @@
       <c r="G206" s="27"/>
       <c r="H206" s="27"/>
       <c r="I206" s="27"/>
-      <c r="J206" s="67"/>
+      <c r="J206" s="66"/>
       <c r="K206" s="22"/>
       <c r="L206" s="23"/>
       <c r="M206" s="21"/>
@@ -14184,7 +14234,7 @@
       <c r="G207" s="27"/>
       <c r="H207" s="27"/>
       <c r="I207" s="27"/>
-      <c r="J207" s="67"/>
+      <c r="J207" s="66"/>
       <c r="K207" s="22"/>
       <c r="L207" s="23"/>
       <c r="M207" s="21"/>
@@ -14201,7 +14251,7 @@
       <c r="G208" s="27"/>
       <c r="H208" s="27"/>
       <c r="I208" s="27"/>
-      <c r="J208" s="67"/>
+      <c r="J208" s="66"/>
       <c r="K208" s="22"/>
       <c r="L208" s="23"/>
       <c r="M208" s="21"/>
@@ -14218,7 +14268,7 @@
       <c r="G209" s="27"/>
       <c r="H209" s="27"/>
       <c r="I209" s="27"/>
-      <c r="J209" s="67"/>
+      <c r="J209" s="66"/>
       <c r="K209" s="22"/>
       <c r="L209" s="23"/>
       <c r="M209" s="21"/>
@@ -14235,7 +14285,7 @@
       <c r="G210" s="27"/>
       <c r="H210" s="27"/>
       <c r="I210" s="27"/>
-      <c r="J210" s="67"/>
+      <c r="J210" s="66"/>
       <c r="K210" s="22"/>
       <c r="L210" s="23"/>
       <c r="M210" s="21"/>
@@ -14252,7 +14302,7 @@
       <c r="G211" s="27"/>
       <c r="H211" s="27"/>
       <c r="I211" s="27"/>
-      <c r="J211" s="67"/>
+      <c r="J211" s="66"/>
       <c r="K211" s="22"/>
       <c r="L211" s="23"/>
       <c r="M211" s="21"/>
@@ -14269,7 +14319,7 @@
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="27"/>
-      <c r="J212" s="67"/>
+      <c r="J212" s="66"/>
       <c r="K212" s="22"/>
       <c r="L212" s="23"/>
       <c r="M212" s="21"/>
@@ -14309,10 +14359,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C23 C24 C25 C26 C27 C28 C31 C32 C33 C34 C37 C38 C39 C42 C43 C44 C45 C54 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C20:C21 C29:C30 C35:C36 C40:C41 C46:C48 C49:C53 C55:C56 C71:C75 C76:C79 C80:C212">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C23 C24 C25 C26 C27 C30 C31 C32 C33 C36 C37 C38 C41 C42 C43 C46 C47 C48 C49 C50 C51 C54 C55 C56 C60 C61 C65 C69 C70 C20:C21 C28:C29 C34:C35 C39:C40 C44:C45 C52:C53 C57:C59 C62:C64 C66:C68 C71:C75 C76:C79 C80:C212">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D37 D38 D39 D42 D43 D44 D45 D54 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D20:D21 D29:D30 D35:D36 D40:D41 D46:D48 D49:D53 D55:D56 D71:D75 D76:D79 D80:D212">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D22 D23 D24 D25 D26 D27 D30 D31 D32 D33 D36 D37 D38 D41 D42 D43 D46 D47 D48 D49 D50 D51 D54 D55 D56 D60 D61 D65 D69 D70 D20:D21 D28:D29 D34:D35 D39:D40 D44:D45 D52:D53 D57:D59 D62:D64 D66:D68 D71:D75 D76:D79 D80:D212">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
